--- a/spec/examples/json_example.xlsx
+++ b/spec/examples/json_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1060" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="invalid Object" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
@@ -115,6 +115,118 @@
   </si>
   <si>
     <t># comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{"foo": 1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{"foo", 1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前に2行の改行</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"foo": 1}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"foo", 1}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後ろに2行の改行</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {"foo": 1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"foo": 1}  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"foo", 1}  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後ろに2つのスペース</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前に2つのスペース</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+["foo", 1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+["foo": 1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ["foo", 1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ["foo": 1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">["foo", 1]  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">["foo": 1]  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">["foo", 1]
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">["foo": 1]
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {"foo", 1}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -174,7 +286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -210,11 +322,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="65">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -232,6 +377,21 @@
     <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -250,6 +410,21 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -578,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -634,6 +809,50 @@
       </c>
       <c r="C4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="44">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="44">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -650,11 +869,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -708,9 +927,54 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="44">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="44">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
